--- a/text/Text List.xlsx
+++ b/text/Text List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Desktop/data_science/text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DCFF9B8-3F37-43FC-B31F-4CAF447C31CE}"/>
   <bookViews>
     <workbookView xWindow="31965" yWindow="3015" windowWidth="19845" windowHeight="12645" xr2:uid="{5FC27F78-F234-4B93-BE46-BAE59FF89DE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Programming</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Practical SQL, DeBarros</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3C59A0-35D8-43FD-B448-891641D46F85}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,153 +514,251 @@
     <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>29</v>
       </c>
     </row>

--- a/text/Text List.xlsx
+++ b/text/Text List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Desktop/data_science/text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DCFF9B8-3F37-43FC-B31F-4CAF447C31CE}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AAE59EE-71F6-4DBC-98EC-ED3B010234E5}"/>
   <bookViews>
-    <workbookView xWindow="31965" yWindow="3015" windowWidth="19845" windowHeight="12645" xr2:uid="{5FC27F78-F234-4B93-BE46-BAE59FF89DE5}"/>
+    <workbookView xWindow="31620" yWindow="2670" windowWidth="19845" windowHeight="12645" xr2:uid="{5FC27F78-F234-4B93-BE46-BAE59FF89DE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>Programming</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Essential Math for Data Science, Nield</t>
   </si>
   <si>
-    <t>Practical Linear ALgebra for Data Science, Cohen</t>
-  </si>
-  <si>
     <t>Statistics</t>
   </si>
   <si>
@@ -132,6 +129,18 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Practical Linear Algebra for Data Science, Cohen</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -184,6 +193,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,7 +519,10 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +532,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -603,26 +619,101 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -634,21 +725,27 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -656,110 +753,179 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>29</v>
+      <c r="B45" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/text/Text List.xlsx
+++ b/text/Text List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Desktop/data_science/text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AAE59EE-71F6-4DBC-98EC-ED3B010234E5}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBF61862-F9A3-4FEE-B50D-C899D970E576}"/>
   <bookViews>
     <workbookView xWindow="31620" yWindow="2670" windowWidth="19845" windowHeight="12645" xr2:uid="{5FC27F78-F234-4B93-BE46-BAE59FF89DE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>Programming</t>
   </si>
@@ -522,7 +522,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,6 +760,9 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
         <v>32</v>
       </c>
       <c r="O14" t="s">

--- a/text/Text List.xlsx
+++ b/text/Text List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Desktop/data_science/text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBF61862-F9A3-4FEE-B50D-C899D970E576}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706BAD91-B032-44E8-AD4B-62C32FDF2DE2}"/>
   <bookViews>
     <workbookView xWindow="31620" yWindow="2670" windowWidth="19845" windowHeight="12645" xr2:uid="{5FC27F78-F234-4B93-BE46-BAE59FF89DE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
   <si>
     <t>Programming</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>-</t>
@@ -522,7 +519,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -661,7 +658,7 @@
         <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -693,10 +690,13 @@
         <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
       </c>
       <c r="V7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="Z13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -763,10 +763,10 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -779,12 +779,12 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -796,7 +796,7 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +886,7 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
         <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,7 +928,7 @@
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/text/Text List.xlsx
+++ b/text/Text List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Desktop/data_science/text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706BAD91-B032-44E8-AD4B-62C32FDF2DE2}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DE669FA-50D9-45BF-BB7D-C01D763A8EE0}"/>
   <bookViews>
     <workbookView xWindow="31620" yWindow="2670" windowWidth="19845" windowHeight="12645" xr2:uid="{5FC27F78-F234-4B93-BE46-BAE59FF89DE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>Programming</t>
   </si>
@@ -519,7 +519,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,9 +692,6 @@
       <c r="J7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
       <c r="V7" t="s">
         <v>33</v>
       </c>
@@ -703,17 +700,11 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -762,9 +753,6 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
       <c r="O14" t="s">
         <v>33</v>
       </c>
@@ -774,15 +762,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -798,137 +786,101 @@
       <c r="E19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
-      <c r="B44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>28</v>
-      </c>
-      <c r="B45" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/text/Text List.xlsx
+++ b/text/Text List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Desktop/data_science/text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DE669FA-50D9-45BF-BB7D-C01D763A8EE0}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1214B95-BCC8-4AC8-B92B-32995A485510}"/>
   <bookViews>
     <workbookView xWindow="31620" yWindow="2670" windowWidth="19845" windowHeight="12645" xr2:uid="{5FC27F78-F234-4B93-BE46-BAE59FF89DE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>Programming</t>
   </si>
@@ -519,7 +519,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,6 +700,24 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">

--- a/text/Text List.xlsx
+++ b/text/Text List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Desktop/data_science/text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1214B95-BCC8-4AC8-B92B-32995A485510}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEA9A2CD-C924-4AF9-84F4-02E6A46EEA7C}"/>
   <bookViews>
     <workbookView xWindow="31620" yWindow="2670" windowWidth="19845" windowHeight="12645" xr2:uid="{5FC27F78-F234-4B93-BE46-BAE59FF89DE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>Programming</t>
   </si>
@@ -519,7 +519,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,10 +718,19 @@
       <c r="G8" t="s">
         <v>30</v>
       </c>
+      <c r="W8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">

--- a/text/Text List.xlsx
+++ b/text/Text List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Desktop/data_science/text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEA9A2CD-C924-4AF9-84F4-02E6A46EEA7C}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E5AA8CC-4B92-4EFD-9CB6-CF872D53CCA3}"/>
   <bookViews>
     <workbookView xWindow="31620" yWindow="2670" windowWidth="19845" windowHeight="12645" xr2:uid="{5FC27F78-F234-4B93-BE46-BAE59FF89DE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>Programming</t>
   </si>
@@ -519,7 +519,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +692,12 @@
       <c r="J7" t="s">
         <v>30</v>
       </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
       <c r="V7" t="s">
         <v>33</v>
       </c>

--- a/text/Text List.xlsx
+++ b/text/Text List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Desktop/data_science/text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E5AA8CC-4B92-4EFD-9CB6-CF872D53CCA3}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72685B77-207F-4E57-864A-3DE4C59C560B}"/>
   <bookViews>
     <workbookView xWindow="31620" yWindow="2670" windowWidth="19845" windowHeight="12645" xr2:uid="{5FC27F78-F234-4B93-BE46-BAE59FF89DE5}"/>
   </bookViews>
@@ -693,10 +693,10 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V7" t="s">
         <v>33</v>

--- a/text/Text List.xlsx
+++ b/text/Text List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b613b08383af307f/Desktop/data_science/text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72685B77-207F-4E57-864A-3DE4C59C560B}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{1946FCA4-05FE-4411-959E-7A8175EA9C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A9A096A-1DD5-40F5-8214-390D15B94DD5}"/>
   <bookViews>
     <workbookView xWindow="31620" yWindow="2670" windowWidth="19845" windowHeight="12645" xr2:uid="{5FC27F78-F234-4B93-BE46-BAE59FF89DE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>Programming</t>
   </si>
@@ -519,7 +519,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,6 +698,9 @@
       <c r="L7" t="s">
         <v>30</v>
       </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
       <c r="V7" t="s">
         <v>33</v>
       </c>
